--- a/gestion-programacion/creador_cursos/carga_ccursos.xlsx
+++ b/gestion-programacion/creador_cursos/carga_ccursos.xlsx
@@ -469,10 +469,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -525,21 +525,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1200</v>
+        <v>1268</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MICOLOGÍA-VIROLOGÍA CLÍNICA</t>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MVC-044</t>
+          <t>FBQ-015</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 4-O-305_MVC-044-1-393</t>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 1-S-100_FBQ-015-1-516</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -547,56 +547,43 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1201</v>
+        <v>1270</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ÉTICA Y CIUDADANÍA</t>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ETI-033</t>
+          <t>FBQ-015</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 3-E-200_ETI-033-1-394</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>INMUNOLOGÍA GENERAL</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ING-091</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 3-E-200_ING-091-2-394</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 1-602_FBQ-015-1-517</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1202</v>
+        <v>1271</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INTERPRETACIÓN DE PRUEBA DE LABORATORIO</t>
+          <t>ASISTENCIA EN MEDICINA TRADICIONAL Y ALTERNATIVA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IPL-045</t>
+          <t>MTA-070</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 6-O-503_IPL-045-1-395</t>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 2-S-100_MTA-070-1-518</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -604,21 +591,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1203</v>
+        <v>1273</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CITOTECNOLOGÍA EXFOLIATIVA</t>
+          <t>FARMACOTECNIA II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CEX-046</t>
+          <t>FTI-071</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 5-O-305_CEX-046-1-396</t>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 6-300-VS_FTI-071-1-519</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -626,56 +613,43 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1202</v>
+        <v>1274</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GESTIÓN Y AUTOMATIZACIÓN EN LABORATORIO CLÍNICO</t>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GAL-047</t>
+          <t>INF-072</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 6-O-405_GAL-047-1-397</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>INNOVACIÓN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>INV-021</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 6-O-405_INV-021-2-397</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 4-301_INF-072-1-520</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1204</v>
+        <v>1275</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+          <t>ATENCIÓN BÁSICA DE URGENCIAS Y EMERGENCIAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FBQ-015</t>
+          <t>AUE-022</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 1-O-302_FBQ-015-1-398</t>
+          <t>P258258FAT_258FAT-VES-010_TCICLO 1-200_AUE-022-1-521</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -683,56 +657,43 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1204</v>
+        <v>1277</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MATEMÁTICA APLICADA</t>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MTA-012</t>
+          <t>ADT-073</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-305_MTA-012-1-399</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TÉCNICAS DE COMUNICACIÓN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>TCM-030</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-305_TCM-030-2-399</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 4-300-HO_ADT-073-1-522</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1202</v>
+        <v>1278</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INTERPRETACIÓN DE PRUEBA DE LABORATORIO</t>
+          <t>PRINCIPIOS BÁSICOS DE ADMINISTRACIÓN Y LEGISLACIÓN FARMACÉUTICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IPL-045</t>
+          <t>PAL-074</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 6-O-405_IPL-045-1-400</t>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 4-501_PAL-074-1-523</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -740,56 +701,43 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1204</v>
+        <v>1277</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GESTIÓN DE EXISTENCIAS Y OPERACIONES BÁSICAS EN LABORATORIO</t>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GEB-048</t>
+          <t>ADT-073</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 1-O-301_GEB-048-1-401</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS BÁSICOS DE BIOSEGURIDAD</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>PBB-024</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 1-O-301_PBB-024-2-401</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 4-205-HO_ADT-073-1-524</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1201</v>
+        <v>1280</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BASES CONCEPTUALES DE LAS ENFERMEDADES</t>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BCE-032</t>
+          <t>AFC-075</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 3-O-400_BCE-032-1-402</t>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 2-803-AM_AFC-075-1-525</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -797,78 +745,78 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1202</v>
+        <v>1281</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INTERPRETACIÓN DE PRUEBA DE LABORATORIO</t>
+          <t>HERRAMIENTAS INFORMÁTICAS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IPL-045</t>
+          <t>HIN-028</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 6-O-404_IPL-045-1-403</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-LAB-301_HIN-028-1-526</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MATEMÁTICA APLICADA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MTA-012</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-601_MTA-012-2-526</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1204</v>
+        <v>1280</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TÉCNICAS DE COMUNICACIÓN</t>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TCM-030</t>
+          <t>AFC-075</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-301_TCM-030-1-404</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MATEMÁTICA APLICADA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MTA-012</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-301_MTA-012-2-404</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-AME-006_MCICLO 2-803-AM_AFC-075-1-527</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1200</v>
+        <v>1282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MICOLOGÍA-VIROLOGÍA CLÍNICA</t>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MVC-044</t>
+          <t>MCI-076</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 4-O-301_MVC-044-1-405</t>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 5-200_MCI-076-1-528</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -876,65 +824,91 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1205</v>
+        <v>1268</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PREANALÍTICA E INSTRUMENTACIÓN EN LABORATORIO CLÍNICO</t>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PIL-049</t>
+          <t>TCM-030</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 2-O-501_PIL-049-1-406</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-100_TCM-030-1-529</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-100_ISP-007-2-529</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1201</v>
+        <v>1268</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BASES CONCEPTUALES DE LAS ENFERMEDADES</t>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BCE-032</t>
+          <t>ISP-007</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 3-S-405_BCE-032-1-407</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-S-100_ISP-007-1-530</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-S-100_TCM-030-2-530</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1205</v>
+        <v>1284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MORFOFISIOLOGÍA HUMANA</t>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MFH-005</t>
+          <t>FBQ-015</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 2-O-501_MFH-005-1-408</t>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 1-D-200_FBQ-015-1-531</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -942,21 +916,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1203</v>
+        <v>1270</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CITOTECNOLOGÍA EXFOLIATIVA</t>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CEX-046</t>
+          <t>FBT-077</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 5-O-503_CEX-046-1-409</t>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 1-400_FBT-077-1-532</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -964,21 +938,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1203</v>
+        <v>1285</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LABORATORIO FORENSE</t>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LFO-050</t>
+          <t>MFH-005</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 5-O-404_LFO-050-1-410</t>
+          <t>P258258FAT_258FAT-VES-010_TCICLO 2-505-VS_MFH-005-1-533</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -986,91 +960,78 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1204</v>
+        <v>1282</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GESTIÓN DE EXISTENCIAS Y OPERACIONES BÁSICAS EN LABORATORIO</t>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GEB-048</t>
+          <t>MCI-076</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 1-O-404_GEB-048-1-411</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS BÁSICOS DE BIOSEGURIDAD</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>PBB-024</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 1-O-404_PBB-024-2-411</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 5-200_MCI-076-1-534</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1201</v>
+        <v>1286</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ÉTICA Y CIUDADANÍA</t>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ETI-033</t>
+          <t>HSF-078</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 3-S-405_ETI-033-1-412</t>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-501_HSF-078-1-535</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INMUNOLOGÍA GENERAL</t>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ING-091</t>
+          <t>MDS-088</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 3-S-405_ING-091-2-412</t>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-501_MDS-088-2-535</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1205</v>
+        <v>1287</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COMUNICACIÓN BÁSICA EN INGLÉS</t>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CBI-020</t>
+          <t>AFC-075</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 2-O-302_CBI-020-1-413</t>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 2-D-300_AFC-075-1-536</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1078,21 +1039,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1203</v>
+        <v>1271</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CITOTECNOLOGÍA EXFOLIATIVA</t>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CEX-046</t>
+          <t>MFH-005</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 5-E-100_CEX-046-1-414</t>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 2-303_MFH-005-1-537</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1100,69 +1061,2208 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1200</v>
+        <v>1286</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MICOLOGÍA-VIROLOGÍA CLÍNICA</t>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MVC-044</t>
+          <t>HSF-078</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 4-E-100_MVC-044-1-415</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-601_HSF-078-1-538</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-601_MDS-088-2-538</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1205</v>
+        <v>1288</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INGLÉS I</t>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ING-051</t>
+          <t>TRN-079</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 2-O-302_ING-051-1-416</t>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 6-S-102_TRN-079-1-539</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="3">
+    <row r="26">
       <c r="A26" t="n">
-        <v>1204</v>
+        <v>1288</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GESTIÓN DE EXISTENCIAS Y OPERACIONES BÁSICAS EN LABORATORIO</t>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GEB-048</t>
+          <t>TRN-079</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 1-O-301_GEB-048-1-417</t>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 6-S-102_TRN-079-1-540</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 6-302_FTI-071-1-541</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AFC-075</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 2-304_AFC-075-1-542</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_MCICLO 4-401-VS_INF-072-1-543</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MFH-005</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 2-200-HO_MFH-005-1-544</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ATENCIÓN BÁSICA DE URGENCIAS Y EMERGENCIAS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AUE-022</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 1-700_AUE-022-1-545</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 6-406_FTI-071-1-546</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE CONTROL DE CALIDAD EN LA INDUSTRIA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>TCC-080</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_MCICLO 6-402-VS_TCC-080-1-547</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE VENTAS DE PRODUCTOS FARMACÉUTICOS, DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>TVF-081</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 3-400_TVF-081-1-548</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PETITORIO NACIONAL DE MEDICAMENTOS ESENCIALES</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>PNM-093</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 3-400_PNM-093-2-548</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ÉTICA Y CIUDADANÍA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ETI-033</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 3-162_ETI-033-1-549</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN, RECEPCIÓN Y EXPENDIO DE PRODUCTOS FARMACÉUTICOS, DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ARE-094</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 3-162_ARE-094-2-549</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AFC-075</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 2-803-AM_AFC-075-1-550</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 4-408-HO_INF-072-1-551</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MFH-005</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 2-204_MFH-005-1-552</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GESTIÓN DOCUMENTARIA EN ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GDF-082</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 4-A-106_GDF-082-1-553</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 4-301_INF-072-1-554</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ADT-073</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SLA-002_MCICLO 4-310_ADT-073-1-555</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AFC-075</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 2-D-201_AFC-075-1-556</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1299</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 6-300-HO_FTI-071-1-557</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MATEMÁTICA APLICADA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MTA-012</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-018_MCICLO 2-109_MTA-012-1-558</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>HERRAMIENTAS INFORMÁTICAS</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>HIN-028</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-018_MCICLO 2-S-100_HIN-028-2-558</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 1-C-301_FBT-077-1-559</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MFH-005</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 2-201_MFH-005-1-560</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FBQ-015</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 1-301-HO_FBQ-015-1-561</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE CONTROL DE CALIDAD EN LA INDUSTRIA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>TCC-080</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SLA-002_MCICLO 6-301_TCC-080-1-562</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_MCICLO 1-800-AM_TCM-030-1-563</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_MCICLO 1-800-AM_ISP-007-2-563</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 6-D-300_FTI-071-1-564</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ESTUDIO ESTRUCTURAL Y FUNCIONAL DEL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>EEF-018</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 1-400_EEF-018-1-565</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1278</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS BÁSICOS DE ADMINISTRACIÓN Y LEGISLACIÓN FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PAL-074</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 4-602_PAL-074-1-566</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-200_HSF-078-1-567</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-200_MDS-088-2-567</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1307</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MÉTODOS DE EXTRACCIÓN E IDENTIFICACIÓN DE RECURSOS NATURALES</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MER-083</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 5-201_MER-083-1-568</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FBQ-015</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 1-201-HO_FBQ-015-1-569</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_MCICLO 4-A-106_INF-072-1-570</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 1-200_TCM-030-1-571</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 1-200_ISP-007-2-571</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 1-800-AM_TCM-030-1-572</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 1-800-AM_ISP-007-2-572</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TRN-079</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_MCICLO 6-600_TRN-079-1-573</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ADT-073</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 4-400_ADT-073-1-574</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-701_HSF-078-1-575</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-701_MDS-088-2-575</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS BÁSICOS DE ADMINISTRACIÓN Y LEGISLACIÓN FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PAL-074</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 4-100_PAL-074-1-576</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MFH-005</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 2-406-HO_MFH-005-1-577</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-601_HSF-078-1-578</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-601_MDS-088-2-578</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TAM-010</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 2-602_TAM-010-1-579</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_PCICLO 6-601_FTI-071-1-580</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA I</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>FTI-084</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_MCICLO 5-D-200_FTI-084-1-581</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 1-403-HO_FBT-077-1-582</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AFC-075</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 2-502-VS_AFC-075-1-583</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>INNOVACIÓN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>INV-021</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 4-200_INV-021-1-584</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>EMPRENDIMIENTO</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>EMP-025</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 4-200_EMP-025-2-584</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 4-700_INF-072-1-585</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-800-AM_ISP-007-1-586</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-800-AM_TCM-030-2-586</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>BUENAS PRÁCTICAS DE MANUFACTURA EN EL LABORATORIO FARMACÉUTICO</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>BPM-085</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 6-802-AM_BPM-085-1-587</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GESTIÓN DOCUMENTARIA EN ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>GDF-082</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 4-S-102_GDF-082-1-588</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>TRN-079</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_MCICLO 6-D-300_TRN-079-1-589</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MFH-005</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 2-201_MFH-005-1-590</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>GESTIÓN DOCUMENTARIA EN ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>GDF-082</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 4-603-AM_GDF-082-1-591</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MCI-076</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 5-176_MCI-076-1-592</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_TCICLO 6-600_HSF-078-1-593</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_TCICLO 6-600_MDS-088-2-593</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 4-A-106_INF-072-1-594</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ASISTENCIA EN MEDICINA TRADICIONAL Y ALTERNATIVA</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>MTA-070</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 2-205-HO_MTA-070-1-595</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MATEMÁTICA APLICADA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MTA-012</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-601_MTA-012-1-596</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>HERRAMIENTAS INFORMÁTICAS</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>HIN-028</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-LAB-301_HIN-028-2-596</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>TAM-010</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 2-200-HO_TAM-010-1-597</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ESTUDIO ESTRUCTURAL Y FUNCIONAL DEL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>EEF-018</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 1-C-301_EEF-018-1-598</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>TAM-010</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-BSU-004_PCICLO 2-BELI-401_TAM-010-1-599</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 6-C-201_FTI-071-1-600</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>TAM-010</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 2-200_TAM-010-1-601</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 1-402-HO_FBT-077-1-602</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>FBQ-015</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_TCICLO 1-500-VS_FBQ-015-1-603</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 1-204_TCM-030-1-604</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 1-204_ISP-007-2-604</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FBQ-015</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 1-501_FBQ-015-1-605</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>TAM-010</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 2-300-HO_TAM-010-1-606</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ÉTICA Y CIUDADANÍA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ETI-033</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 3-162_ETI-033-1-607</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN, RECEPCIÓN Y EXPENDIO DE PRODUCTOS FARMACÉUTICOS, DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ARE-094</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 3-162_ARE-094-2-607</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA I</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>FTI-084</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 5-301-HO_FTI-084-1-608</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BASES CONCEPTUALES DE LAS ENFERMEDADES</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BCE-032</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 3-D-201_BCE-032-1-609</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ASISTENCIA EN MEDICINA TRADICIONAL Y ALTERNATIVA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MTA-070</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 2-400_MTA-070-1-610</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ESTUDIO ESTRUCTURAL Y FUNCIONAL DEL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>EEF-018</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 1-D-200_EEF-018-1-611</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 1-701_FBT-077-1-612</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 6-603-AM_FTI-071-1-613</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ATENCIÓN BÁSICA DE URGENCIAS Y EMERGENCIAS</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>AUE-022</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 1-201-HO_AUE-022-1-614</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 1-701_FBT-077-1-615</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ELABORACIÓN DE FORMAS FARMACÉUTICAS</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>EFF-086</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 5-500-VS_EFF-086-1-616</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 1-200_FBT-077-1-617</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 1-301-HO_FBT-077-1-618</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MCI-076</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SLA-002_MCICLO 5-210_MCI-076-1-619</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-801-AM_TCM-030-1-620</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-801-AM_ISP-007-2-620</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ADT-073</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 4-406-HO_ADT-073-1-621</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-701_HSF-078-1-622</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-701_MDS-088-2-622</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>FBQ-015</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-018_MCICLO 1-110_FBQ-015-1-623</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 6-101_HSF-078-1-624</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 6-101_MDS-088-2-624</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>INGLÉS II</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ING-006</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 3-253_ING-006-1-625</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>BUENAS PRÁCTICAS DE ELABORACIÓN, ROTULADO Y ENVASADO DE FÓRMULAS MAGISTRALES Y PREPARADOS OFICINALES</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>BPE-087</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 5-177_BPE-087-1-626</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1175,7 +3275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1222,21 +3322,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1200</v>
+        <v>1268</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MICOLOGÍA-VIROLOGÍA CLÍNICA</t>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MVC-044</t>
+          <t>FBQ-015</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 4-O-305_MVC-044-1-393</t>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 1-S-100_FBQ-015-1-516</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1245,56 +3345,44 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1201</v>
+        <v>1270</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ÉTICA Y CIUDADANÍA</t>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ETI-033</t>
+          <t>FBQ-015</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 3-E-200_ETI-033-1-394</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>INMUNOLOGÍA GENERAL</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ING-091</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 3-E-200_ING-091-2-394</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 1-602_FBQ-015-1-517</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1202</v>
+        <v>1271</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INTERPRETACIÓN DE PRUEBA DE LABORATORIO</t>
+          <t>ASISTENCIA EN MEDICINA TRADICIONAL Y ALTERNATIVA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IPL-045</t>
+          <t>MTA-070</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 6-O-503_IPL-045-1-395</t>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 2-S-100_MTA-070-1-518</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1303,21 +3391,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1203</v>
+        <v>1273</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CITOTECNOLOGÍA EXFOLIATIVA</t>
+          <t>FARMACOTECNIA II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CEX-046</t>
+          <t>FTI-071</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 5-O-305_CEX-046-1-396</t>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 6-300-VS_FTI-071-1-519</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1326,56 +3414,44 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1202</v>
+        <v>1274</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GESTIÓN Y AUTOMATIZACIÓN EN LABORATORIO CLÍNICO</t>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GAL-047</t>
+          <t>INF-072</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 6-O-405_GAL-047-1-397</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>INNOVACIÓN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>INV-021</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 6-O-405_INV-021-2-397</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 4-301_INF-072-1-520</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1204</v>
+        <v>1275</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+          <t>ATENCIÓN BÁSICA DE URGENCIAS Y EMERGENCIAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FBQ-015</t>
+          <t>AUE-022</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 1-O-302_FBQ-015-1-398</t>
+          <t>P258258FAT_258FAT-VES-010_TCICLO 1-200_AUE-022-1-521</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1384,56 +3460,44 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1204</v>
+        <v>1277</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MATEMÁTICA APLICADA</t>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MTA-012</t>
+          <t>ADT-073</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-305_MTA-012-1-399</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TÉCNICAS DE COMUNICACIÓN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>TCM-030</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-305_TCM-030-2-399</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 4-300-HO_ADT-073-1-522</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1202</v>
+        <v>1278</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INTERPRETACIÓN DE PRUEBA DE LABORATORIO</t>
+          <t>PRINCIPIOS BÁSICOS DE ADMINISTRACIÓN Y LEGISLACIÓN FARMACÉUTICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IPL-045</t>
+          <t>PAL-074</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 6-O-405_IPL-045-1-400</t>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 4-501_PAL-074-1-523</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1442,56 +3506,44 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1204</v>
+        <v>1277</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GESTIÓN DE EXISTENCIAS Y OPERACIONES BÁSICAS EN LABORATORIO</t>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GEB-048</t>
+          <t>ADT-073</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 1-O-301_GEB-048-1-401</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS BÁSICOS DE BIOSEGURIDAD</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>PBB-024</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 1-O-301_PBB-024-2-401</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 4-205-HO_ADT-073-1-524</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1201</v>
+        <v>1280</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BASES CONCEPTUALES DE LAS ENFERMEDADES</t>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BCE-032</t>
+          <t>AFC-075</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 3-O-400_BCE-032-1-402</t>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 2-803-AM_AFC-075-1-525</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1500,79 +3552,79 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1202</v>
+        <v>1281</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INTERPRETACIÓN DE PRUEBA DE LABORATORIO</t>
+          <t>HERRAMIENTAS INFORMÁTICAS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IPL-045</t>
+          <t>HIN-028</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 6-O-404_IPL-045-1-403</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-LAB-301_HIN-028-1-526</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MATEMÁTICA APLICADA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MTA-012</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-601_MTA-012-2-526</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1204</v>
+        <v>1280</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TÉCNICAS DE COMUNICACIÓN</t>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TCM-030</t>
+          <t>AFC-075</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-301_TCM-030-1-404</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MATEMÁTICA APLICADA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MTA-012</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-301_MTA-012-2-404</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-AME-006_MCICLO 2-803-AM_AFC-075-1-527</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1200</v>
+        <v>1282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MICOLOGÍA-VIROLOGÍA CLÍNICA</t>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MVC-044</t>
+          <t>MCI-076</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 4-O-301_MVC-044-1-405</t>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 5-200_MCI-076-1-528</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1581,67 +3633,91 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1205</v>
+        <v>1268</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PREANALÍTICA E INSTRUMENTACIÓN EN LABORATORIO CLÍNICO</t>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PIL-049</t>
+          <t>TCM-030</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 2-O-501_PIL-049-1-406</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-100_TCM-030-1-529</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-100_ISP-007-2-529</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1201</v>
+        <v>1268</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BASES CONCEPTUALES DE LAS ENFERMEDADES</t>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BCE-032</t>
+          <t>ISP-007</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 3-S-405_BCE-032-1-407</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-S-100_ISP-007-1-530</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-S-100_TCM-030-2-530</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1205</v>
+        <v>1284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MORFOFISIOLOGÍA HUMANA</t>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MFH-005</t>
+          <t>FBQ-015</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 2-O-501_MFH-005-1-408</t>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 1-D-200_FBQ-015-1-531</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1650,21 +3726,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1203</v>
+        <v>1270</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CITOTECNOLOGÍA EXFOLIATIVA</t>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CEX-046</t>
+          <t>FBT-077</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 5-O-503_CEX-046-1-409</t>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 1-400_FBT-077-1-532</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1673,21 +3749,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1203</v>
+        <v>1285</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LABORATORIO FORENSE</t>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LFO-050</t>
+          <t>MFH-005</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 5-O-404_LFO-050-1-410</t>
+          <t>P258258FAT_258FAT-VES-010_TCICLO 2-505-VS_MFH-005-1-533</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1696,91 +3772,79 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1204</v>
+        <v>1282</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GESTIÓN DE EXISTENCIAS Y OPERACIONES BÁSICAS EN LABORATORIO</t>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GEB-048</t>
+          <t>MCI-076</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 1-O-404_GEB-048-1-411</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS BÁSICOS DE BIOSEGURIDAD</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>PBB-024</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 1-O-404_PBB-024-2-411</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 5-200_MCI-076-1-534</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1201</v>
+        <v>1286</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ÉTICA Y CIUDADANÍA</t>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ETI-033</t>
+          <t>HSF-078</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 3-S-405_ETI-033-1-412</t>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-501_HSF-078-1-535</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INMUNOLOGÍA GENERAL</t>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ING-091</t>
+          <t>MDS-088</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 3-S-405_ING-091-2-412</t>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-501_MDS-088-2-535</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1205</v>
+        <v>1287</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COMUNICACIÓN BÁSICA EN INGLÉS</t>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CBI-020</t>
+          <t>AFC-075</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 2-O-302_CBI-020-1-413</t>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 2-D-300_AFC-075-1-536</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1789,21 +3853,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1203</v>
+        <v>1271</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CITOTECNOLOGÍA EXFOLIATIVA</t>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CEX-046</t>
+          <t>MFH-005</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 5-E-100_CEX-046-1-414</t>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 2-303_MFH-005-1-537</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1812,44 +3876,56 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1200</v>
+        <v>1286</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MICOLOGÍA-VIROLOGÍA CLÍNICA</t>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MVC-044</t>
+          <t>HSF-078</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 4-E-100_MVC-044-1-415</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-601_HSF-078-1-538</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-601_MDS-088-2-538</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1205</v>
+        <v>1288</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INGLÉS I</t>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ING-051</t>
+          <t>TRN-079</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 2-O-302_ING-051-1-416</t>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 6-S-102_TRN-079-1-539</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1858,26 +3934,2220 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1204</v>
+        <v>1288</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GESTIÓN DE EXISTENCIAS Y OPERACIONES BÁSICAS EN LABORATORIO</t>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GEB-048</t>
+          <t>TRN-079</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 1-O-301_GEB-048-1-417</t>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 6-S-102_TRN-079-1-540</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 6-302_FTI-071-1-541</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AFC-075</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 2-304_AFC-075-1-542</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_MCICLO 4-401-VS_INF-072-1-543</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MFH-005</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 2-200-HO_MFH-005-1-544</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ATENCIÓN BÁSICA DE URGENCIAS Y EMERGENCIAS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AUE-022</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 1-700_AUE-022-1-545</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 6-406_FTI-071-1-546</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE CONTROL DE CALIDAD EN LA INDUSTRIA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>TCC-080</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_MCICLO 6-402-VS_TCC-080-1-547</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE VENTAS DE PRODUCTOS FARMACÉUTICOS, DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>TVF-081</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 3-400_TVF-081-1-548</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PETITORIO NACIONAL DE MEDICAMENTOS ESENCIALES</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>PNM-093</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 3-400_PNM-093-2-548</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ÉTICA Y CIUDADANÍA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ETI-033</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 3-162_ETI-033-1-549</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN, RECEPCIÓN Y EXPENDIO DE PRODUCTOS FARMACÉUTICOS, DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ARE-094</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 3-162_ARE-094-2-549</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AFC-075</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 2-803-AM_AFC-075-1-550</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 4-408-HO_INF-072-1-551</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MFH-005</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 2-204_MFH-005-1-552</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GESTIÓN DOCUMENTARIA EN ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GDF-082</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 4-A-106_GDF-082-1-553</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 4-301_INF-072-1-554</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ADT-073</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SLA-002_MCICLO 4-310_ADT-073-1-555</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AFC-075</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 2-D-201_AFC-075-1-556</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1299</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 6-300-HO_FTI-071-1-557</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MATEMÁTICA APLICADA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MTA-012</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-018_MCICLO 2-109_MTA-012-1-558</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>HERRAMIENTAS INFORMÁTICAS</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>HIN-028</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-018_MCICLO 2-S-100_HIN-028-2-558</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 1-C-301_FBT-077-1-559</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MFH-005</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 2-201_MFH-005-1-560</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FBQ-015</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 1-301-HO_FBQ-015-1-561</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE CONTROL DE CALIDAD EN LA INDUSTRIA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>TCC-080</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SLA-002_MCICLO 6-301_TCC-080-1-562</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_MCICLO 1-800-AM_TCM-030-1-563</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_MCICLO 1-800-AM_ISP-007-2-563</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 6-D-300_FTI-071-1-564</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ESTUDIO ESTRUCTURAL Y FUNCIONAL DEL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>EEF-018</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 1-400_EEF-018-1-565</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1278</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS BÁSICOS DE ADMINISTRACIÓN Y LEGISLACIÓN FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PAL-074</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 4-602_PAL-074-1-566</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-200_HSF-078-1-567</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-200_MDS-088-2-567</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1307</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MÉTODOS DE EXTRACCIÓN E IDENTIFICACIÓN DE RECURSOS NATURALES</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MER-083</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 5-201_MER-083-1-568</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FBQ-015</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 1-201-HO_FBQ-015-1-569</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_MCICLO 4-A-106_INF-072-1-570</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 1-200_TCM-030-1-571</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 1-200_ISP-007-2-571</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 1-800-AM_TCM-030-1-572</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 1-800-AM_ISP-007-2-572</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TRN-079</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_MCICLO 6-600_TRN-079-1-573</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ADT-073</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 4-400_ADT-073-1-574</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-701_HSF-078-1-575</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-701_MDS-088-2-575</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS BÁSICOS DE ADMINISTRACIÓN Y LEGISLACIÓN FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PAL-074</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 4-100_PAL-074-1-576</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MFH-005</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 2-406-HO_MFH-005-1-577</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-601_HSF-078-1-578</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-601_MDS-088-2-578</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TAM-010</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 2-602_TAM-010-1-579</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_PCICLO 6-601_FTI-071-1-580</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA I</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>FTI-084</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_MCICLO 5-D-200_FTI-084-1-581</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 1-403-HO_FBT-077-1-582</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AFC-075</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 2-502-VS_AFC-075-1-583</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>INNOVACIÓN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>INV-021</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 4-200_INV-021-1-584</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>EMPRENDIMIENTO</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>EMP-025</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 4-200_EMP-025-2-584</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 4-700_INF-072-1-585</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-800-AM_ISP-007-1-586</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-800-AM_TCM-030-2-586</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>BUENAS PRÁCTICAS DE MANUFACTURA EN EL LABORATORIO FARMACÉUTICO</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>BPM-085</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 6-802-AM_BPM-085-1-587</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GESTIÓN DOCUMENTARIA EN ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>GDF-082</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 4-S-102_GDF-082-1-588</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>TRN-079</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_MCICLO 6-D-300_TRN-079-1-589</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MFH-005</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 2-201_MFH-005-1-590</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>GESTIÓN DOCUMENTARIA EN ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>GDF-082</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 4-603-AM_GDF-082-1-591</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MCI-076</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 5-176_MCI-076-1-592</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_TCICLO 6-600_HSF-078-1-593</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_TCICLO 6-600_MDS-088-2-593</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>INF-072</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 4-A-106_INF-072-1-594</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ASISTENCIA EN MEDICINA TRADICIONAL Y ALTERNATIVA</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>MTA-070</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 2-205-HO_MTA-070-1-595</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MATEMÁTICA APLICADA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MTA-012</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-601_MTA-012-1-596</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>HERRAMIENTAS INFORMÁTICAS</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>HIN-028</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-LAB-301_HIN-028-2-596</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>TAM-010</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 2-200-HO_TAM-010-1-597</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ESTUDIO ESTRUCTURAL Y FUNCIONAL DEL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>EEF-018</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 1-C-301_EEF-018-1-598</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>TAM-010</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-BSU-004_PCICLO 2-BELI-401_TAM-010-1-599</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 6-C-201_FTI-071-1-600</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>TAM-010</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 2-200_TAM-010-1-601</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 1-402-HO_FBT-077-1-602</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>FBQ-015</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_TCICLO 1-500-VS_FBQ-015-1-603</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 1-204_TCM-030-1-604</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 1-204_ISP-007-2-604</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FBQ-015</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 1-501_FBQ-015-1-605</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>TAM-010</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 2-300-HO_TAM-010-1-606</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ÉTICA Y CIUDADANÍA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ETI-033</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 3-162_ETI-033-1-607</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN, RECEPCIÓN Y EXPENDIO DE PRODUCTOS FARMACÉUTICOS, DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ARE-094</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 3-162_ARE-094-2-607</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA I</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>FTI-084</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 5-301-HO_FTI-084-1-608</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BASES CONCEPTUALES DE LAS ENFERMEDADES</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BCE-032</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 3-D-201_BCE-032-1-609</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ASISTENCIA EN MEDICINA TRADICIONAL Y ALTERNATIVA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MTA-070</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 2-400_MTA-070-1-610</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ESTUDIO ESTRUCTURAL Y FUNCIONAL DEL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>EEF-018</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 1-D-200_EEF-018-1-611</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 1-701_FBT-077-1-612</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FTI-071</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 6-603-AM_FTI-071-1-613</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ATENCIÓN BÁSICA DE URGENCIAS Y EMERGENCIAS</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>AUE-022</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 1-201-HO_AUE-022-1-614</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 1-701_FBT-077-1-615</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ELABORACIÓN DE FORMAS FARMACÉUTICAS</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>EFF-086</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 5-500-VS_EFF-086-1-616</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 1-200_FBT-077-1-617</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>FBT-077</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 1-301-HO_FBT-077-1-618</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MCI-076</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SLA-002_MCICLO 5-210_MCI-076-1-619</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>TCM-030</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-801-AM_TCM-030-1-620</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>ISP-007</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-801-AM_ISP-007-2-620</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ADT-073</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 4-406-HO_ADT-073-1-621</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-701_HSF-078-1-622</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-701_MDS-088-2-622</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>FBQ-015</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-018_MCICLO 1-110_FBQ-015-1-623</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>HSF-078</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 6-101_HSF-078-1-624</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>MDS-088</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 6-101_MDS-088-2-624</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>INGLÉS II</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ING-006</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 3-253_ING-006-1-625</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>BUENAS PRÁCTICAS DE ELABORACIÓN, ROTULADO Y ENVASADO DE FÓRMULAS MAGISTRALES Y PREPARADOS OFICINALES</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>BPE-087</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 5-177_BPE-087-1-626</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1890,7 +6160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1937,19 +6207,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1200</v>
+        <v>1268</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MICOLOGÍA-VIROLOGÍA CLÍNICA</t>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 4-O-305_MVC-044-1-393</t>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 1-S-100_FBQ-015-1-516</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1958,50 +6228,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1201</v>
+        <v>1270</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ÉTICA Y CIUDADANÍA</t>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 3-E-200_ETI-033-1-394</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>INMUNOLOGÍA GENERAL</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>117</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 3-E-200_ING-091-2-394</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 1-602_FBQ-015-1-517</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1202</v>
+        <v>1271</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INTERPRETACIÓN DE PRUEBA DE LABORATORIO</t>
+          <t>ASISTENCIA EN MEDICINA TRADICIONAL Y ALTERNATIVA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 6-O-503_IPL-045-1-395</t>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 2-S-100_MTA-070-1-518</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -2010,19 +6270,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1203</v>
+        <v>1273</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CITOTECNOLOGÍA EXFOLIATIVA</t>
+          <t>FARMACOTECNIA II</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>119</v>
+        <v>292</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 5-O-305_CEX-046-1-396</t>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 6-300-VS_FTI-071-1-519</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -2031,50 +6291,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1202</v>
+        <v>1274</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GESTIÓN Y AUTOMATIZACIÓN EN LABORATORIO CLÍNICO</t>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>293</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 6-O-405_GAL-047-1-397</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>INNOVACIÓN</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>121</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 6-O-405_INV-021-2-397</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 4-301_INF-072-1-520</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1204</v>
+        <v>1275</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+          <t>ATENCIÓN BÁSICA DE URGENCIAS Y EMERGENCIAS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 1-O-302_FBQ-015-1-398</t>
+          <t>P258258FAT_258FAT-VES-010_TCICLO 1-200_AUE-022-1-521</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2083,50 +6333,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1204</v>
+        <v>1277</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MATEMÁTICA APLICADA</t>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-305_MTA-012-1-399</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TÉCNICAS DE COMUNICACIÓN</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>124</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-305_TCM-030-2-399</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 4-300-HO_ADT-073-1-522</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1202</v>
+        <v>1278</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INTERPRETACIÓN DE PRUEBA DE LABORATORIO</t>
+          <t>PRINCIPIOS BÁSICOS DE ADMINISTRACIÓN Y LEGISLACIÓN FARMACÉUTICA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 6-O-405_IPL-045-1-400</t>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 4-501_PAL-074-1-523</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2135,50 +6375,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1204</v>
+        <v>1277</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GESTIÓN DE EXISTENCIAS Y OPERACIONES BÁSICAS EN LABORATORIO</t>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 1-O-301_GEB-048-1-401</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS BÁSICOS DE BIOSEGURIDAD</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>127</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 1-O-301_PBB-024-2-401</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 4-205-HO_ADT-073-1-524</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1201</v>
+        <v>1280</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BASES CONCEPTUALES DE LAS ENFERMEDADES</t>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 3-O-400_BCE-032-1-402</t>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 2-803-AM_AFC-075-1-525</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2187,71 +6417,71 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1202</v>
+        <v>1281</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INTERPRETACIÓN DE PRUEBA DE LABORATORIO</t>
+          <t>HERRAMIENTAS INFORMÁTICAS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 6-O-404_IPL-045-1-403</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-LAB-301_HIN-028-1-526</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MATEMÁTICA APLICADA</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>300</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-601_MTA-012-2-526</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1204</v>
+        <v>1280</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TÉCNICAS DE COMUNICACIÓN</t>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-301_TCM-030-1-404</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MATEMÁTICA APLICADA</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>131</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 1-O-301_MTA-012-2-404</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-AME-006_MCICLO 2-803-AM_AFC-075-1-527</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1200</v>
+        <v>1282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MICOLOGÍA-VIROLOGÍA CLÍNICA</t>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 4-O-301_MVC-044-1-405</t>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 5-200_MCI-076-1-528</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -2260,61 +6490,81 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1205</v>
+        <v>1268</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PREANALÍTICA E INSTRUMENTACIÓN EN LABORATORIO CLÍNICO</t>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>133</v>
+        <v>303</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 2-O-501_PIL-049-1-406</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-100_TCM-030-1-529</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>304</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-100_ISP-007-2-529</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1201</v>
+        <v>1268</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BASES CONCEPTUALES DE LAS ENFERMEDADES</t>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 3-S-405_BCE-032-1-407</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-S-100_ISP-007-1-530</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>306</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 1-S-100_TCM-030-2-530</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1205</v>
+        <v>1284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MORFOFISIOLOGÍA HUMANA</t>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 2-O-501_MFH-005-1-408</t>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 1-D-200_FBQ-015-1-531</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -2323,19 +6573,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1203</v>
+        <v>1270</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CITOTECNOLOGÍA EXFOLIATIVA</t>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 5-O-503_CEX-046-1-409</t>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 1-400_FBT-077-1-532</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -2344,19 +6594,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1203</v>
+        <v>1285</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LABORATORIO FORENSE</t>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>137</v>
+        <v>309</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 5-O-404_LFO-050-1-410</t>
+          <t>P258258FAT_258FAT-VES-010_TCICLO 2-505-VS_MFH-005-1-533</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -2365,81 +6615,71 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1204</v>
+        <v>1282</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GESTIÓN DE EXISTENCIAS Y OPERACIONES BÁSICAS EN LABORATORIO</t>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>138</v>
+        <v>310</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 1-O-404_GEB-048-1-411</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS BÁSICOS DE BIOSEGURIDAD</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>139</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>P258258LCA_258LCA-PNR-007_MCICLO 1-O-404_PBB-024-2-411</t>
-        </is>
-      </c>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 5-200_MCI-076-1-534</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1201</v>
+        <v>1286</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ÉTICA Y CIUDADANÍA</t>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 3-S-405_ETI-033-1-412</t>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-501_HSF-078-1-535</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INMUNOLOGÍA GENERAL</t>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 3-S-405_ING-091-2-412</t>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-501_MDS-088-2-535</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1205</v>
+        <v>1287</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COMUNICACIÓN BÁSICA EN INGLÉS</t>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>142</v>
+        <v>313</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 2-O-302_CBI-020-1-413</t>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 2-D-300_AFC-075-1-536</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2448,19 +6688,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1203</v>
+        <v>1271</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CITOTECNOLOGÍA EXFOLIATIVA</t>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 5-E-100_CEX-046-1-414</t>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 2-303_MFH-005-1-537</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2469,40 +6709,50 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1200</v>
+        <v>1286</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MICOLOGÍA-VIROLOGÍA CLÍNICA</t>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_TCICLO 4-E-100_MVC-044-1-415</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-601_HSF-078-1-538</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>316</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 6-601_MDS-088-2-538</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1205</v>
+        <v>1288</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INGLÉS I</t>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 2-O-302_ING-051-1-416</t>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 6-S-102_TRN-079-1-539</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2511,24 +6761,2010 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1204</v>
+        <v>1288</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GESTIÓN DE EXISTENCIAS Y OPERACIONES BÁSICAS EN LABORATORIO</t>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>146</v>
+        <v>318</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>P258258LCA_258LCA-PNR-007_PCICLO 1-O-301_GEB-048-1-417</t>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 6-S-102_TRN-079-1-540</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>319</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 6-302_FTI-071-1-541</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>320</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 2-304_AFC-075-1-542</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>321</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_MCICLO 4-401-VS_INF-072-1-543</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>322</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 2-200-HO_MFH-005-1-544</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ATENCIÓN BÁSICA DE URGENCIAS Y EMERGENCIAS</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>323</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 1-700_AUE-022-1-545</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>324</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 6-406_FTI-071-1-546</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE CONTROL DE CALIDAD EN LA INDUSTRIA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>325</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_MCICLO 6-402-VS_TCC-080-1-547</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE VENTAS DE PRODUCTOS FARMACÉUTICOS, DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>326</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 3-400_TVF-081-1-548</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PETITORIO NACIONAL DE MEDICAMENTOS ESENCIALES</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>327</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 3-400_PNM-093-2-548</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ÉTICA Y CIUDADANÍA</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>328</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 3-162_ETI-033-1-549</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN, RECEPCIÓN Y EXPENDIO DE PRODUCTOS FARMACÉUTICOS, DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>329</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 3-162_ARE-094-2-549</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>330</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 2-803-AM_AFC-075-1-550</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>331</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 4-408-HO_INF-072-1-551</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>332</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 2-204_MFH-005-1-552</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GESTIÓN DOCUMENTARIA EN ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>333</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 4-A-106_GDF-082-1-553</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>334</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 4-301_INF-072-1-554</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>335</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SLA-002_MCICLO 4-310_ADT-073-1-555</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>336</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 2-D-201_AFC-075-1-556</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1299</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>337</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 6-300-HO_FTI-071-1-557</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MATEMÁTICA APLICADA</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>338</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-018_MCICLO 2-109_MTA-012-1-558</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>HERRAMIENTAS INFORMÁTICAS</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>339</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-018_MCICLO 2-S-100_HIN-028-2-558</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>340</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 1-C-301_FBT-077-1-559</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>341</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 2-201_MFH-005-1-560</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>342</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 1-301-HO_FBQ-015-1-561</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE CONTROL DE CALIDAD EN LA INDUSTRIA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>343</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SLA-002_MCICLO 6-301_TCC-080-1-562</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>344</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_MCICLO 1-800-AM_TCM-030-1-563</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>345</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_MCICLO 1-800-AM_ISP-007-2-563</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>346</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 6-D-300_FTI-071-1-564</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ESTUDIO ESTRUCTURAL Y FUNCIONAL DEL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>347</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 1-400_EEF-018-1-565</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1278</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS BÁSICOS DE ADMINISTRACIÓN Y LEGISLACIÓN FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>348</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 4-602_PAL-074-1-566</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>349</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-200_HSF-078-1-567</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>350</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-200_MDS-088-2-567</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1307</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MÉTODOS DE EXTRACCIÓN E IDENTIFICACIÓN DE RECURSOS NATURALES</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>351</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 5-201_MER-083-1-568</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>352</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 1-201-HO_FBQ-015-1-569</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>353</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_MCICLO 4-A-106_INF-072-1-570</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>354</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 1-200_TCM-030-1-571</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>355</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 1-200_ISP-007-2-571</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>356</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 1-800-AM_TCM-030-1-572</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>357</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 1-800-AM_ISP-007-2-572</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>358</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_MCICLO 6-600_TRN-079-1-573</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>359</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 4-400_ADT-073-1-574</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>360</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-701_HSF-078-1-575</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>361</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-701_MDS-088-2-575</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS BÁSICOS DE ADMINISTRACIÓN Y LEGISLACIÓN FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>362</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 4-100_PAL-074-1-576</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>363</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 2-406-HO_MFH-005-1-577</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>364</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-601_HSF-078-1-578</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>365</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 6-601_MDS-088-2-578</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>366</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_MCICLO 2-602_TAM-010-1-579</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>367</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_PCICLO 6-601_FTI-071-1-580</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA I</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>368</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_MCICLO 5-D-200_FTI-084-1-581</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>369</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 1-403-HO_FBT-077-1-582</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ACTIVIDADES FARMACÉUTICAS EN SALUD COMUNITARIA</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>370</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 2-502-VS_AFC-075-1-583</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>INNOVACIÓN</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>371</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 4-200_INV-021-1-584</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>EMPRENDIMIENTO</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>372</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 4-200_EMP-025-2-584</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>373</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 4-700_INF-072-1-585</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>374</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-800-AM_ISP-007-1-586</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>375</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-800-AM_TCM-030-2-586</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>BUENAS PRÁCTICAS DE MANUFACTURA EN EL LABORATORIO FARMACÉUTICO</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>376</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 6-802-AM_BPM-085-1-587</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GESTIÓN DOCUMENTARIA EN ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>377</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_TCICLO 4-S-102_GDF-082-1-588</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE TRANSFORMACIÓN DE RECURSOS NATURALES</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>378</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_MCICLO 6-D-300_TRN-079-1-589</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MORFOFISIOLOGÍA HUMANA</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>379</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_PCICLO 2-201_MFH-005-1-590</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>GESTIÓN DOCUMENTARIA EN ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>380</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 4-603-AM_GDF-082-1-591</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>381</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 5-176_MCI-076-1-592</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>382</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_TCICLO 6-600_HSF-078-1-593</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>383</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AVA-019_TCICLO 6-600_MDS-088-2-593</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA FARMACÉUTICA</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>384</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 4-A-106_INF-072-1-594</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ASISTENCIA EN MEDICINA TRADICIONAL Y ALTERNATIVA</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>385</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 2-205-HO_MTA-070-1-595</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MATEMÁTICA APLICADA</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>386</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-601_MTA-012-1-596</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>HERRAMIENTAS INFORMÁTICAS</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>387</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_TCICLO 2-LAB-301_HIN-028-2-596</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>388</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 2-200-HO_TAM-010-1-597</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ESTUDIO ESTRUCTURAL Y FUNCIONAL DEL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>389</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 1-C-301_EEF-018-1-598</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>390</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-BSU-004_PCICLO 2-BELI-401_TAM-010-1-599</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>391</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 6-C-201_FTI-071-1-600</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>392</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 2-200_TAM-010-1-601</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>393</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 1-402-HO_FBT-077-1-602</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>394</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_TCICLO 1-500-VS_FBQ-015-1-603</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>395</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 1-204_TCM-030-1-604</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>396</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-PPI-003_MCICLO 1-204_ISP-007-2-604</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>397</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 1-501_FBQ-015-1-605</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE ADMINISTRACIÓN DE MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>398</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 2-300-HO_TAM-010-1-606</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ÉTICA Y CIUDADANÍA</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>399</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 3-162_ETI-033-1-607</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN, RECEPCIÓN Y EXPENDIO DE PRODUCTOS FARMACÉUTICOS, DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_PCICLO 3-162_ARE-094-2-607</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA I</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>401</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_MCICLO 5-301-HO_FTI-084-1-608</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BASES CONCEPTUALES DE LAS ENFERMEDADES</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>402</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_TCICLO 3-D-201_BCE-032-1-609</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ASISTENCIA EN MEDICINA TRADICIONAL Y ALTERNATIVA</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>403</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 2-400_MTA-070-1-610</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ESTUDIO ESTRUCTURAL Y FUNCIONAL DEL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>404</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AUG-021_PCICLO 1-D-200_EEF-018-1-611</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>405</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJL-020_PCICLO 1-701_FBT-077-1-612</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>FARMACOTECNIA II</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>406</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 6-603-AM_FTI-071-1-613</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ATENCIÓN BÁSICA DE URGENCIAS Y EMERGENCIAS</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>407</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 1-201-HO_AUE-022-1-614</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>408</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 1-701_FBT-077-1-615</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ELABORACIÓN DE FORMAS FARMACÉUTICAS</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>409</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 5-500-VS_EFF-086-1-616</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>410</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-010_PCICLO 1-200_FBT-077-1-617</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BÁSICOS DE TOXICOLOGÍA</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>411</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_TCICLO 1-301-HO_FBT-077-1-618</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MANEJO,CONTROL E INVENTARIO DE EQUIPOS,MATERIALES E INSUMOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>412</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SLA-002_MCICLO 5-210_MCI-076-1-619</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TÉCNICAS DE COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>413</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-801-AM_TCM-030-1-620</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA SALUD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>414</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_TCICLO 1-801-AM_ISP-007-2-620</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ALMACENAMIENTO,DISTRIBUCIÓN Y TRANSPORTE DE PRODUCTOS FARMACÉUTICOS,DISPOSITIVOS MÉDICOS Y PRODUCTOS SANITARIOS</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>415</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 4-406-HO_ADT-073-1-621</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>416</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-701_HSF-078-1-622</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>417</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_MCICLO 6-701_MDS-088-2-622</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS BIOLÓGICOS Y QUÍMICOS EN EL SER HUMANO</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>418</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-VES-018_MCICLO 1-110_FBQ-015-1-623</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>HIGIENE Y SANEAMIENTO EN LOS ESTABLECIMIENTOS FARMACÉUTICOS</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>419</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 6-101_HSF-078-1-624</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MEDIO AMBIENTE Y DESARROLLO SOSTENIBLE</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>420</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-SJM-022_TCICLO 6-101_MDS-088-2-624</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>INGLÉS II</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>421</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-HZE-005_PCICLO 3-253_ING-006-1-625</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>BUENAS PRÁCTICAS DE ELABORACIÓN, ROTULADO Y ENVASADO DE FÓRMULAS MAGISTRALES Y PREPARADOS OFICINALES</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>422</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>P258258FAT_258FAT-AME-006_PCICLO 5-177_BPE-087-1-626</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
